--- a/doc/盛达/0313/3.13发货清单_001.xlsx
+++ b/doc/盛达/0313/3.13发货清单_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\monolith\workspace\python\invoiceAnalysis\doc\盛达\0313\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90569F08-CE4E-4B0D-8B9F-52BBA869E0B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C04DE-A2B7-4307-9604-79C8C8F60450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B1" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
